--- a/pred_ohlcv/54_21/2019-10-22 WTC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-22 WTC ohlcv.xlsx
@@ -548,7 +548,7 @@
         <v>-4527.664999999999</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-5414.950599999999</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-5370.848099999999</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-6183.6387</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-6183.6387</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-5225.264999999999</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-6517.4859</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-6495.0756</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-6945.2794</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-7728.0676</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-7725.0676</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-7725.0676</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-7052.4058</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-7052.4058</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-7050.4058</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-6652.266100000001</v>
       </c>
       <c r="H25">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-6652.266100000001</v>
       </c>
       <c r="H26">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-7186.504900000001</v>
       </c>
       <c r="H27">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-6767.364</v>
       </c>
       <c r="H29">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-6767.364</v>
       </c>
       <c r="H30">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-7783.364</v>
       </c>
       <c r="H31">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-7467.1729</v>
       </c>
       <c r="H35">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-9567.413100000002</v>
       </c>
       <c r="H36">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-8343.341200000003</v>
       </c>
       <c r="H37">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-9440.469300000002</v>
       </c>
       <c r="H38">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-9440.469300000002</v>
       </c>
       <c r="H39">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-13103.7887</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-14268.7887</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-12903.5878</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-11258.3873</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>-11513.6672</v>
       </c>
       <c r="H51">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>-11513.6672</v>
       </c>
       <c r="H52">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>-8272.270800000004</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-5959.396400000003</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-5959.396400000003</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-5959.396400000003</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-5723.996400000004</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-3047.807500000004</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-1039.237700000004</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-1472.095200000004</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-1472.095200000004</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>-740.5133000000036</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>3059.793499999996</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>4315.488099999996</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>27970.36950928074</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>27969.36950928074</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>28572.46230928074</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>28571.46230928074</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>38395.92840928074</v>
       </c>
       <c r="H151">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>39333.54930928074</v>
       </c>
       <c r="H152">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>39333.54930928074</v>
       </c>
       <c r="H153">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>39333.54930928074</v>
       </c>
       <c r="H154">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>39333.54930928074</v>
       </c>
       <c r="H155">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>39345.0833346556</v>
       </c>
       <c r="H156">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>37746.57943465559</v>
       </c>
       <c r="H157">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>37828.28843465559</v>
       </c>
       <c r="H158">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>37999.6164346556</v>
       </c>
       <c r="H159">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>37910.58973465559</v>
       </c>
       <c r="H160">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>37910.58973465559</v>
       </c>
       <c r="H161">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>37910.58973465559</v>
       </c>
       <c r="H162">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>37936.79943465559</v>
       </c>
       <c r="H163">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>37936.79943465559</v>
       </c>
       <c r="H164">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>37759.24013465559</v>
       </c>
       <c r="H165">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>37496.5401346556</v>
       </c>
       <c r="H166">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2019-10-22 WTC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-22 WTC ohlcv.xlsx
@@ -548,7 +548,7 @@
         <v>-4527.664999999999</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-5370.848099999999</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-6183.6387</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-6183.6387</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-6652.266100000001</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-6652.266100000001</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-7186.504900000001</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-6767.364</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-6767.364</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-7783.364</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-7467.1729</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-9567.413100000002</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-8343.341200000003</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-9440.469300000002</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-9440.469300000002</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-13103.7887</v>
       </c>
       <c r="H43">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-14268.7887</v>
       </c>
       <c r="H44">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-12903.5878</v>
       </c>
       <c r="H45">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-11258.3873</v>
       </c>
       <c r="H46">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-11907.4108</v>
       </c>
       <c r="H53">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-11729.5108</v>
       </c>
       <c r="H54">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-11749.5108</v>
       </c>
       <c r="H55">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-11790.5939</v>
       </c>
       <c r="H56">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-8838.633000000003</v>
       </c>
       <c r="H58">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>-8272.270800000004</v>
       </c>
       <c r="H62">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-5959.396400000003</v>
       </c>
       <c r="H64">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-5959.396400000003</v>
       </c>
       <c r="H65">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-5959.396400000003</v>
       </c>
       <c r="H66">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-5723.996400000004</v>
       </c>
       <c r="H67">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-3047.807500000004</v>
       </c>
       <c r="H68">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-1039.237700000004</v>
       </c>
       <c r="H69">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-1472.095200000004</v>
       </c>
       <c r="H70">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-1472.095200000004</v>
       </c>
       <c r="H71">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>-740.5133000000036</v>
       </c>
       <c r="H72">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>3059.793499999996</v>
       </c>
       <c r="H73">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>4315.488099999996</v>
       </c>
       <c r="H74">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>14463.4249</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>13963.4249</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>20238.433</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>28918.1521</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>29005.1264</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>28486.1253</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>28486.1253</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>26764.9894</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>28168.8054</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>29328.8982</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>26548.0479</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>28705.45920928074</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>26232.45920928074</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>24911.71130928074</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>23494.62760928074</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>26221.50290928074</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>26012.31950928074</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>27373.19680928074</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>28174.19680928074</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>27969.36950928074</v>
       </c>
       <c r="H108">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>28572.46230928074</v>
       </c>
       <c r="H109">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>28571.46230928074</v>
       </c>
       <c r="H110">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>38395.92840928074</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>39333.54930928074</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>39333.54930928074</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>39333.54930928074</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>39333.54930928074</v>
       </c>
       <c r="H155">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>39345.0833346556</v>
       </c>
       <c r="H156">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>37746.57943465559</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>37828.28843465559</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>37999.6164346556</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>37910.58973465559</v>
       </c>
       <c r="H160">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>37910.58973465559</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>37910.58973465559</v>
       </c>
       <c r="H162">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>37936.79943465559</v>
       </c>
       <c r="H163">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>37936.79943465559</v>
       </c>
       <c r="H164">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>37759.24013465559</v>
       </c>
       <c r="H165">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>37496.5401346556</v>
       </c>
       <c r="H166">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
